--- a/data/coded_segments/md_7_1.xlsx
+++ b/data/coded_segments/md_7_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Whiting/Repositories/amr-db/data/coded_segments_rename/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Whiting/Repositories/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="291">
   <si>
     <t>Color</t>
   </si>
@@ -71,9 +71,180 @@
     <t/>
   </si>
   <si>
+    <t>7340</t>
+  </si>
+  <si>
+    <t>Exclusion:Review article</t>
+  </si>
+  <si>
+    <t>1: 0</t>
+  </si>
+  <si>
+    <t>1: 6</t>
+  </si>
+  <si>
+    <t>Multipl</t>
+  </si>
+  <si>
+    <t>mdualeh</t>
+  </si>
+  <si>
+    <t>8/28/18 18:08:00</t>
+  </si>
+  <si>
+    <t>16252</t>
+  </si>
+  <si>
+    <t>1: 2</t>
+  </si>
+  <si>
+    <t>The</t>
+  </si>
+  <si>
+    <t>8/28/18 18:09:00</t>
+  </si>
+  <si>
+    <t>16716</t>
+  </si>
+  <si>
+    <t>Exclusion:Not clinical case in human patient</t>
+  </si>
+  <si>
+    <t>1: 50</t>
+  </si>
+  <si>
+    <t>Tn125-Related Acquisition of blaNDM-Like Genes in</t>
+  </si>
+  <si>
+    <t>1845</t>
+  </si>
+  <si>
+    <t>1: 18</t>
+  </si>
+  <si>
+    <t>1: 31</t>
+  </si>
+  <si>
+    <t>E´ volution de</t>
+  </si>
+  <si>
+    <t>8/28/18 17:24:00</t>
+  </si>
+  <si>
+    <t>14062</t>
+  </si>
+  <si>
+    <t>1: 38</t>
+  </si>
+  <si>
+    <t>1: 45</t>
+  </si>
+  <si>
+    <t>Emerging</t>
+  </si>
+  <si>
+    <t>20588</t>
+  </si>
+  <si>
+    <t>1: 85</t>
+  </si>
+  <si>
+    <t>1: 91</t>
+  </si>
+  <si>
+    <t>Complex</t>
+  </si>
+  <si>
+    <t>5390</t>
+  </si>
+  <si>
+    <t>1: 336</t>
+  </si>
+  <si>
+    <t>1: 344</t>
+  </si>
+  <si>
+    <t>resistant</t>
+  </si>
+  <si>
+    <t>8/28/18 17:27:00</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
+    <t>Location:Country</t>
+  </si>
+  <si>
+    <t>1: 509</t>
+  </si>
+  <si>
+    <t>1: 514</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>8/28/18 17:23:00</t>
+  </si>
+  <si>
+    <t>Location:Hospital name</t>
+  </si>
+  <si>
+    <t>1: 733</t>
+  </si>
+  <si>
+    <t>1: 768</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ramo´ n y Cajal University Hospital</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>10/15/18 16:16:00</t>
+  </si>
+  <si>
+    <t>Location:State/Province/District</t>
+  </si>
+  <si>
+    <t>1: 771</t>
+  </si>
+  <si>
+    <t>1: 776</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>10/15/18 16:17:00</t>
+  </si>
+  <si>
+    <t>1: 779</t>
+  </si>
+  <si>
+    <t>1: 783</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>1874</t>
+  </si>
+  <si>
+    <t>1: 1570</t>
+  </si>
+  <si>
+    <t>1: 1575</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>8/28/18 17:26:00</t>
+  </si>
+  <si>
     <t>Patient:Age</t>
   </si>
   <si>
@@ -86,10 +257,7 @@
     <t>40</t>
   </si>
   <si>
-    <t>mdualeh</t>
-  </si>
-  <si>
-    <t>8/28/18 17:22:41</t>
+    <t>8/28/18 17:22:00</t>
   </si>
   <si>
     <t>Patient:Sex</t>
@@ -104,12 +272,6 @@
     <t>woman</t>
   </si>
   <si>
-    <t>8/28/18 17:22:47</t>
-  </si>
-  <si>
-    <t>Location:Hospital name</t>
-  </si>
-  <si>
     <t>1: 1674</t>
   </si>
   <si>
@@ -119,9 +281,6 @@
     <t>Casamance Hospital</t>
   </si>
   <si>
-    <t>8/28/18 17:22:51</t>
-  </si>
-  <si>
     <t>Location:City</t>
   </si>
   <si>
@@ -134,24 +293,6 @@
     <t>Marseille</t>
   </si>
   <si>
-    <t>8/28/18 17:22:57</t>
-  </si>
-  <si>
-    <t>Location:Country</t>
-  </si>
-  <si>
-    <t>1: 509</t>
-  </si>
-  <si>
-    <t>1: 514</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>8/28/18 17:23:04</t>
-  </si>
-  <si>
     <t>Patient:Symptoms/Disease</t>
   </si>
   <si>
@@ -164,7 +305,16 @@
     <t>pain</t>
   </si>
   <si>
-    <t>8/28/18 17:23:11</t>
+    <t>First Surveillance Study (of a particular resistance) in Countr</t>
+  </si>
+  <si>
+    <t>1: 2115</t>
+  </si>
+  <si>
+    <t>1: 2119</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>Event day</t>
@@ -179,7 +329,13 @@
     <t>29</t>
   </si>
   <si>
-    <t>8/28/18 17:23:24</t>
+    <t>Event date</t>
+  </si>
+  <si>
+    <t>1: 2192</t>
+  </si>
+  <si>
+    <t>29 January 2015</t>
   </si>
   <si>
     <t>Event month</t>
@@ -194,31 +350,101 @@
     <t>January</t>
   </si>
   <si>
-    <t>8/28/18 17:23:27</t>
-  </si>
-  <si>
     <t>Event year</t>
   </si>
   <si>
     <t>1: 2189</t>
   </si>
   <si>
-    <t>1: 2192</t>
-  </si>
-  <si>
     <t>2015</t>
   </si>
   <si>
-    <t>8/28/18 17:23:32</t>
-  </si>
-  <si>
-    <t>Event date</t>
-  </si>
-  <si>
-    <t>29 January 2015</t>
-  </si>
-  <si>
-    <t>8/28/18 17:23:42</t>
+    <t>6655</t>
+  </si>
+  <si>
+    <t>Bacteria:Strain</t>
+  </si>
+  <si>
+    <t>1: 2226</t>
+  </si>
+  <si>
+    <t>1: 2230</t>
+  </si>
+  <si>
+    <t>ST101</t>
+  </si>
+  <si>
+    <t>8/28/18 17:57:00</t>
+  </si>
+  <si>
+    <t>1: 2243</t>
+  </si>
+  <si>
+    <t>1: 2277</t>
+  </si>
+  <si>
+    <t>never 
+been observed in our region.</t>
+  </si>
+  <si>
+    <t>1: 2497</t>
+  </si>
+  <si>
+    <t>1: 2509</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>8/28/18 17:55:00</t>
+  </si>
+  <si>
+    <t>1: 2514</t>
+  </si>
+  <si>
+    <t>1: 2522</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>8/28/18 17:56:00</t>
+  </si>
+  <si>
+    <t>1: 2526</t>
+  </si>
+  <si>
+    <t>1: 2528</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57</t>
+  </si>
+  <si>
+    <t>1: 2539</t>
+  </si>
+  <si>
+    <t>1: 2541</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>1: 2632</t>
+  </si>
+  <si>
+    <t>1: 2648</t>
+  </si>
+  <si>
+    <t>Florence province</t>
+  </si>
+  <si>
+    <t>1: 2651</t>
+  </si>
+  <si>
+    <t>1: 2655</t>
+  </si>
+  <si>
+    <t>Italy</t>
   </si>
   <si>
     <t>Drug Resisted</t>
@@ -233,7 +459,37 @@
     <t>clindamycin</t>
   </si>
   <si>
-    <t>8/28/18 17:23:54</t>
+    <t>6737</t>
+  </si>
+  <si>
+    <t>1: 2801</t>
+  </si>
+  <si>
+    <t>1: 2823</t>
+  </si>
+  <si>
+    <t>Nagasaki Medical Center</t>
+  </si>
+  <si>
+    <t>10/15/18 16:21:00</t>
+  </si>
+  <si>
+    <t>1: 2826</t>
+  </si>
+  <si>
+    <t>1: 2836</t>
+  </si>
+  <si>
+    <t>Ohmura City</t>
+  </si>
+  <si>
+    <t>1: 2839</t>
+  </si>
+  <si>
+    <t>1: 2843</t>
+  </si>
+  <si>
+    <t>Japan</t>
   </si>
   <si>
     <t>Bacteria:Binomial (genus species)</t>
@@ -248,28 +504,68 @@
     <t xml:space="preserve">F. hominis </t>
   </si>
   <si>
-    <t>8/28/18 17:24:01</t>
-  </si>
-  <si>
-    <t>1845</t>
-  </si>
-  <si>
-    <t>Exclusion:Not clinical case in human patient</t>
-  </si>
-  <si>
-    <t>1: 18</t>
-  </si>
-  <si>
-    <t>1: 31</t>
-  </si>
-  <si>
-    <t>E´ volution de</t>
-  </si>
-  <si>
-    <t>8/28/18 17:24:31</t>
-  </si>
-  <si>
-    <t>1874</t>
+    <t>1: 3697</t>
+  </si>
+  <si>
+    <t>1: 3705</t>
+  </si>
+  <si>
+    <t>all drugs</t>
+  </si>
+  <si>
+    <t>1: 4535</t>
+  </si>
+  <si>
+    <t>1: 4547</t>
+  </si>
+  <si>
+    <t>K. pneumoniae</t>
+  </si>
+  <si>
+    <t>7940</t>
+  </si>
+  <si>
+    <t>2: 0</t>
+  </si>
+  <si>
+    <t>2: 73</t>
+  </si>
+  <si>
+    <t>Emerging resistance to carbapenems in a tertiary care hospital in 
+north I</t>
+  </si>
+  <si>
+    <t>2: 66</t>
+  </si>
+  <si>
+    <t>2: 67</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>8/28/18 17:59:00</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>10/15/18 16:22:00</t>
+  </si>
+  <si>
+    <t>2: 78</t>
+  </si>
+  <si>
+    <t>2: 80</t>
+  </si>
+  <si>
+    <t>2: 153</t>
+  </si>
+  <si>
+    <t>2: 160</t>
+  </si>
+  <si>
+    <t>May 2007</t>
   </si>
   <si>
     <t>2: 1030</t>
@@ -281,21 +577,12 @@
     <t>18</t>
   </si>
   <si>
-    <t>8/28/18 17:24:42</t>
-  </si>
-  <si>
     <t>2: 1042</t>
   </si>
   <si>
     <t>2: 1044</t>
   </si>
   <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>8/28/18 17:24:45</t>
-  </si>
-  <si>
     <t>2: 1365</t>
   </si>
   <si>
@@ -305,7 +592,7 @@
     <t xml:space="preserve"> high fever</t>
   </si>
   <si>
-    <t>8/28/18 17:25:07</t>
+    <t>8/28/18 17:25:00</t>
   </si>
   <si>
     <t>2: 1378</t>
@@ -318,9 +605,6 @@
 pain</t>
   </si>
   <si>
-    <t>8/28/18 17:25:12</t>
-  </si>
-  <si>
     <t>2: 1395</t>
   </si>
   <si>
@@ -330,7 +614,34 @@
     <t>shortness of breath</t>
   </si>
   <si>
-    <t>8/28/18 17:25:18</t>
+    <t>2: 1570</t>
+  </si>
+  <si>
+    <t>2: 1576</t>
+  </si>
+  <si>
+    <t>39.1° C</t>
+  </si>
+  <si>
+    <t>8/28/18 18:00:00</t>
+  </si>
+  <si>
+    <t>2: 1582</t>
+  </si>
+  <si>
+    <t>2: 1593</t>
+  </si>
+  <si>
+    <t>stomach pain</t>
+  </si>
+  <si>
+    <t>2: 2116</t>
+  </si>
+  <si>
+    <t>2: 2130</t>
+  </si>
+  <si>
+    <t>A. xylosoxidans</t>
   </si>
   <si>
     <t>2: 3712</t>
@@ -339,12 +650,6 @@
     <t>2: 3724</t>
   </si>
   <si>
-    <t>K. pneumoniae</t>
-  </si>
-  <si>
-    <t>8/28/18 17:26:01</t>
-  </si>
-  <si>
     <t>2: 3791</t>
   </si>
   <si>
@@ -354,9 +659,6 @@
     <t xml:space="preserve"> cephalosporins</t>
   </si>
   <si>
-    <t>8/28/18 17:26:07</t>
-  </si>
-  <si>
     <t>2: 3809</t>
   </si>
   <si>
@@ -366,9 +668,6 @@
     <t>piperacillin/tazobactam,</t>
   </si>
   <si>
-    <t>8/28/18 17:26:11</t>
-  </si>
-  <si>
     <t>2: 3834</t>
   </si>
   <si>
@@ -378,9 +677,6 @@
     <t>quinolones</t>
   </si>
   <si>
-    <t>8/28/18 17:26:15</t>
-  </si>
-  <si>
     <t>2: 3849</t>
   </si>
   <si>
@@ -390,9 +686,6 @@
     <t>amikacin</t>
   </si>
   <si>
-    <t>8/28/18 17:26:17</t>
-  </si>
-  <si>
     <t>2: 3891</t>
   </si>
   <si>
@@ -402,422 +695,31 @@
     <t>carbapenems</t>
   </si>
   <si>
-    <t>8/28/18 17:26:20</t>
-  </si>
-  <si>
-    <t>1: 1570</t>
-  </si>
-  <si>
-    <t>1: 1575</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>8/28/18 17:26:43</t>
-  </si>
-  <si>
-    <t>First Surveillance Study (of a particular resistance) in Countr</t>
-  </si>
-  <si>
-    <t>1: 2115</t>
-  </si>
-  <si>
-    <t>1: 2119</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>8/28/18 17:26:59</t>
-  </si>
-  <si>
-    <t>5390</t>
-  </si>
-  <si>
-    <t>Exclusion:Review article</t>
-  </si>
-  <si>
-    <t>1: 336</t>
-  </si>
-  <si>
-    <t>1: 344</t>
-  </si>
-  <si>
-    <t>resistant</t>
-  </si>
-  <si>
-    <t>8/28/18 17:27:40</t>
-  </si>
-  <si>
-    <t>6655</t>
-  </si>
-  <si>
-    <t>1: 2526</t>
-  </si>
-  <si>
-    <t>1: 2528</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 57</t>
-  </si>
-  <si>
-    <t>8/28/18 17:55:30</t>
-  </si>
-  <si>
-    <t>1: 2539</t>
-  </si>
-  <si>
-    <t>1: 2541</t>
-  </si>
-  <si>
-    <t>8/28/18 17:55:34</t>
-  </si>
-  <si>
-    <t>Location:State/Province/District</t>
-  </si>
-  <si>
-    <t>1: 2632</t>
-  </si>
-  <si>
-    <t>1: 2648</t>
-  </si>
-  <si>
-    <t>Florence province</t>
-  </si>
-  <si>
-    <t>8/28/18 17:55:42</t>
-  </si>
-  <si>
-    <t>1: 2651</t>
-  </si>
-  <si>
-    <t>1: 2655</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>8/28/18 17:55:46</t>
-  </si>
-  <si>
-    <t>1: 2497</t>
-  </si>
-  <si>
-    <t>1: 2509</t>
-  </si>
-  <si>
-    <t>November 2010</t>
-  </si>
-  <si>
-    <t>8/28/18 17:55:57</t>
-  </si>
-  <si>
-    <t>1: 2514</t>
-  </si>
-  <si>
-    <t>1: 2522</t>
-  </si>
-  <si>
-    <t>June 2011</t>
-  </si>
-  <si>
-    <t>8/28/18 17:56:05</t>
-  </si>
-  <si>
-    <t>1: 4535</t>
-  </si>
-  <si>
-    <t>1: 4547</t>
-  </si>
-  <si>
-    <t>8/28/18 17:56:44</t>
-  </si>
-  <si>
-    <t>Bacteria:Strain</t>
-  </si>
-  <si>
-    <t>1: 2226</t>
-  </si>
-  <si>
-    <t>1: 2230</t>
-  </si>
-  <si>
-    <t>ST101</t>
-  </si>
-  <si>
-    <t>8/28/18 17:57:27</t>
-  </si>
-  <si>
-    <t>1: 2243</t>
-  </si>
-  <si>
-    <t>1: 2277</t>
-  </si>
-  <si>
-    <t>never 
-been observed in our region.</t>
-  </si>
-  <si>
-    <t>8/28/18 17:57:37</t>
-  </si>
-  <si>
-    <t>1: 3697</t>
-  </si>
-  <si>
-    <t>1: 3705</t>
-  </si>
-  <si>
-    <t>all drugs</t>
-  </si>
-  <si>
-    <t>8/28/18 17:57:49</t>
-  </si>
-  <si>
-    <t>6737</t>
-  </si>
-  <si>
-    <t>4: 62</t>
-  </si>
-  <si>
-    <t>4: 72</t>
-  </si>
-  <si>
-    <t>ceftriaxone</t>
-  </si>
-  <si>
-    <t>8/28/18 17:58:28</t>
-  </si>
-  <si>
-    <t>4: 75</t>
-  </si>
-  <si>
-    <t>4: 85</t>
-  </si>
-  <si>
-    <t>cefpodoxime</t>
-  </si>
-  <si>
-    <t>8/28/18 17:58:35</t>
-  </si>
-  <si>
-    <t>4: 87</t>
-  </si>
-  <si>
-    <t>4: 93</t>
-  </si>
-  <si>
-    <t>proxeti</t>
-  </si>
-  <si>
-    <t>8/28/18 17:58:39</t>
-  </si>
-  <si>
-    <t>4: 98</t>
-  </si>
-  <si>
-    <t>4: 105</t>
-  </si>
-  <si>
-    <t>cefepime</t>
-  </si>
-  <si>
-    <t>8/28/18 17:58:42</t>
-  </si>
-  <si>
-    <t>4: 108</t>
-  </si>
-  <si>
-    <t>4: 117</t>
-  </si>
-  <si>
-    <t>cefozopran</t>
-  </si>
-  <si>
-    <t>8/28/18 17:58:49</t>
-  </si>
-  <si>
-    <t>4: 120</t>
-  </si>
-  <si>
-    <t>4: 134</t>
-  </si>
-  <si>
-    <t>flomoxef sodium</t>
-  </si>
-  <si>
-    <t>8/28/18 17:58:55</t>
-  </si>
-  <si>
-    <t>4: 137</t>
-  </si>
-  <si>
-    <t>4: 144</t>
-  </si>
-  <si>
-    <t>imipenem</t>
-  </si>
-  <si>
-    <t>8/28/18 17:59:00</t>
-  </si>
-  <si>
-    <t>4: 148</t>
-  </si>
-  <si>
-    <t>4: 156</t>
-  </si>
-  <si>
-    <t>meropenem</t>
-  </si>
-  <si>
-    <t>8/28/18 17:59:04</t>
-  </si>
-  <si>
-    <t>4: 159</t>
-  </si>
-  <si>
-    <t>4: 167</t>
-  </si>
-  <si>
-    <t>aztreonam</t>
-  </si>
-  <si>
-    <t>8/28/18 17:59:09</t>
-  </si>
-  <si>
-    <t>4: 170</t>
-  </si>
-  <si>
-    <t>4: 178</t>
-  </si>
-  <si>
-    <t>entamicin</t>
-  </si>
-  <si>
-    <t>8/28/18 17:59:16</t>
-  </si>
-  <si>
-    <t>4: 181</t>
-  </si>
-  <si>
-    <t>4: 190</t>
-  </si>
-  <si>
-    <t>tobramycin</t>
-  </si>
-  <si>
-    <t>8/28/18 17:59:21</t>
-  </si>
-  <si>
-    <t>4: 194</t>
-  </si>
-  <si>
-    <t>4: 201</t>
-  </si>
-  <si>
-    <t>8/28/18 17:59:25</t>
-  </si>
-  <si>
-    <t>4: 204</t>
-  </si>
-  <si>
-    <t>4: 214</t>
-  </si>
-  <si>
-    <t>minocycline</t>
-  </si>
-  <si>
-    <t>8/28/18 17:59:29</t>
-  </si>
-  <si>
-    <t>4: 221</t>
-  </si>
-  <si>
-    <t>4: 233</t>
-  </si>
-  <si>
-    <t>ciprofloxacin</t>
-  </si>
-  <si>
-    <t>8/28/18 17:59:37</t>
-  </si>
-  <si>
-    <t>2: 66</t>
-  </si>
-  <si>
-    <t>2: 67</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>8/28/18 17:59:47</t>
-  </si>
-  <si>
-    <t>2: 78</t>
-  </si>
-  <si>
-    <t>2: 80</t>
-  </si>
-  <si>
-    <t>8/28/18 17:59:50</t>
-  </si>
-  <si>
-    <t>2: 153</t>
-  </si>
-  <si>
-    <t>2: 160</t>
-  </si>
-  <si>
-    <t>May 2007</t>
-  </si>
-  <si>
-    <t>8/28/18 17:59:57</t>
-  </si>
-  <si>
-    <t>2: 1570</t>
-  </si>
-  <si>
-    <t>2: 1576</t>
-  </si>
-  <si>
-    <t>39.1° C</t>
-  </si>
-  <si>
-    <t>8/28/18 18:00:22</t>
-  </si>
-  <si>
-    <t>2: 1582</t>
-  </si>
-  <si>
-    <t>2: 1593</t>
-  </si>
-  <si>
-    <t>stomach pain</t>
-  </si>
-  <si>
-    <t>8/28/18 18:00:29</t>
-  </si>
-  <si>
-    <t>2: 2116</t>
-  </si>
-  <si>
-    <t>2: 2130</t>
-  </si>
-  <si>
-    <t>A. xylosoxidans</t>
-  </si>
-  <si>
-    <t>8/28/18 18:00:59</t>
-  </si>
-  <si>
     <t>3: 106</t>
   </si>
   <si>
     <t>3: 113</t>
   </si>
   <si>
-    <t>8/28/18 18:01:14</t>
+    <t>8/28/18 18:01:00</t>
+  </si>
+  <si>
+    <t>3: 108</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>10/15/18 16:24:00</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>3: 110</t>
+  </si>
+  <si>
+    <t>2007</t>
   </si>
   <si>
     <t>3: 116</t>
@@ -829,7 +731,7 @@
     <t>66</t>
   </si>
   <si>
-    <t>8/28/18 18:01:21</t>
+    <t>10/15/18 16:23:00</t>
   </si>
   <si>
     <t>3: 162</t>
@@ -841,9 +743,6 @@
     <t>she</t>
   </si>
   <si>
-    <t>8/28/18 18:01:31</t>
-  </si>
-  <si>
     <t>3: 1008</t>
   </si>
   <si>
@@ -853,7 +752,7 @@
     <t>fever</t>
   </si>
   <si>
-    <t>8/28/18 18:02:16</t>
+    <t>8/28/18 18:02:00</t>
   </si>
   <si>
     <t>3: 1039</t>
@@ -863,9 +762,6 @@
   </si>
   <si>
     <t>headache</t>
-  </si>
-  <si>
-    <t>8/28/18 18:02:21</t>
   </si>
   <si>
     <t>Patient:Outcome</t>
@@ -881,92 +777,130 @@
 charged</t>
   </si>
   <si>
-    <t>8/28/18 18:02:42</t>
-  </si>
-  <si>
-    <t>7340</t>
-  </si>
-  <si>
-    <t>1: 0</t>
-  </si>
-  <si>
-    <t>1: 6</t>
-  </si>
-  <si>
-    <t>Multipl</t>
-  </si>
-  <si>
-    <t>8/28/18 18:08:37</t>
-  </si>
-  <si>
-    <t>7940</t>
-  </si>
-  <si>
-    <t>2: 0</t>
-  </si>
-  <si>
-    <t>2: 73</t>
-  </si>
-  <si>
-    <t>Emerging resistance to carbapenems in a tertiary care hospital in 
-north I</t>
-  </si>
-  <si>
-    <t>8/28/18 18:08:48</t>
-  </si>
-  <si>
-    <t>14062</t>
-  </si>
-  <si>
-    <t>1: 38</t>
-  </si>
-  <si>
-    <t>1: 45</t>
-  </si>
-  <si>
-    <t>Emerging</t>
-  </si>
-  <si>
-    <t>8/28/18 18:08:57</t>
-  </si>
-  <si>
-    <t>16252</t>
-  </si>
-  <si>
-    <t>1: 2</t>
-  </si>
-  <si>
-    <t>The</t>
-  </si>
-  <si>
-    <t>8/28/18 18:09:06</t>
-  </si>
-  <si>
-    <t>16716</t>
-  </si>
-  <si>
-    <t>1: 50</t>
-  </si>
-  <si>
-    <t>Tn125-Related Acquisition of blaNDM-Like Genes in</t>
-  </si>
-  <si>
-    <t>8/28/18 18:09:16</t>
-  </si>
-  <si>
-    <t>20588</t>
-  </si>
-  <si>
-    <t>1: 85</t>
-  </si>
-  <si>
-    <t>1: 91</t>
-  </si>
-  <si>
-    <t>Complex</t>
-  </si>
-  <si>
-    <t>8/28/18 18:09:21</t>
+    <t>4: 62</t>
+  </si>
+  <si>
+    <t>4: 72</t>
+  </si>
+  <si>
+    <t>ceftriaxone</t>
+  </si>
+  <si>
+    <t>8/28/18 17:58:00</t>
+  </si>
+  <si>
+    <t>4: 75</t>
+  </si>
+  <si>
+    <t>4: 85</t>
+  </si>
+  <si>
+    <t>cefpodoxime</t>
+  </si>
+  <si>
+    <t>4: 87</t>
+  </si>
+  <si>
+    <t>4: 93</t>
+  </si>
+  <si>
+    <t>proxeti</t>
+  </si>
+  <si>
+    <t>4: 98</t>
+  </si>
+  <si>
+    <t>4: 105</t>
+  </si>
+  <si>
+    <t>cefepime</t>
+  </si>
+  <si>
+    <t>4: 108</t>
+  </si>
+  <si>
+    <t>4: 117</t>
+  </si>
+  <si>
+    <t>cefozopran</t>
+  </si>
+  <si>
+    <t>4: 120</t>
+  </si>
+  <si>
+    <t>4: 134</t>
+  </si>
+  <si>
+    <t>flomoxef sodium</t>
+  </si>
+  <si>
+    <t>4: 137</t>
+  </si>
+  <si>
+    <t>4: 144</t>
+  </si>
+  <si>
+    <t>imipenem</t>
+  </si>
+  <si>
+    <t>4: 148</t>
+  </si>
+  <si>
+    <t>4: 156</t>
+  </si>
+  <si>
+    <t>meropenem</t>
+  </si>
+  <si>
+    <t>4: 159</t>
+  </si>
+  <si>
+    <t>4: 167</t>
+  </si>
+  <si>
+    <t>aztreonam</t>
+  </si>
+  <si>
+    <t>4: 170</t>
+  </si>
+  <si>
+    <t>4: 178</t>
+  </si>
+  <si>
+    <t>entamicin</t>
+  </si>
+  <si>
+    <t>4: 181</t>
+  </si>
+  <si>
+    <t>4: 190</t>
+  </si>
+  <si>
+    <t>tobramycin</t>
+  </si>
+  <si>
+    <t>4: 194</t>
+  </si>
+  <si>
+    <t>4: 201</t>
+  </si>
+  <si>
+    <t>4: 204</t>
+  </si>
+  <si>
+    <t>4: 214</t>
+  </si>
+  <si>
+    <t>minocycline</t>
+  </si>
+  <si>
+    <t>4: 221</t>
+  </si>
+  <si>
+    <t>4: 233</t>
+  </si>
+  <si>
+    <t>ciprofloxacin</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1479,10 +1413,10 @@
         <v>19</v>
       </c>
       <c r="J2" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K2" s="4">
-        <v>2.7118644067796609E-2</v>
+        <v>8.4236000000000005E-2</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>20</v>
@@ -1502,34 +1436,34 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="3">
+        <v>3</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.4180999999999999E-2</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="J3" s="3">
-        <v>5</v>
-      </c>
-      <c r="K3" s="4">
-        <v>6.7796610169491525E-2</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1543,34 +1477,34 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="J4" s="3">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="K4" s="4">
-        <v>0.24406779661016947</v>
+        <v>0.25357099999999999</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1584,34 +1518,34 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="3">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3.8490999999999997E-2</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="3">
-        <v>9</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.12203389830508474</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1625,34 +1559,34 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="J6" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K6" s="4">
-        <v>8.1355932203389825E-2</v>
+        <v>2.4856E-2</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1666,34 +1600,34 @@
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="J7" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K7" s="4">
-        <v>5.4237288135593219E-2</v>
+        <v>1.8225999999999999E-2</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1707,34 +1641,34 @@
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="3">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2.0893999999999999E-2</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2</v>
-      </c>
-      <c r="K8" s="4">
-        <v>2.7118644067796609E-2</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1748,34 +1682,34 @@
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="J9" s="3">
+        <v>6</v>
+      </c>
+      <c r="K9" s="4">
+        <v>8.1355999999999998E-2</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="3">
-        <v>7</v>
-      </c>
-      <c r="K9" s="4">
-        <v>9.4915254237288138E-2</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1789,34 +1723,34 @@
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="J10" s="3">
+        <v>35</v>
+      </c>
+      <c r="K10" s="4">
+        <v>9.1132000000000005E-2</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="3">
-        <v>4</v>
-      </c>
-      <c r="K10" s="4">
-        <v>5.4237288135593219E-2</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1830,16 +1764,16 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -1848,13 +1782,13 @@
         <v>63</v>
       </c>
       <c r="J11" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K11" s="4">
-        <v>0.20338983050847459</v>
+        <v>1.5623E-2</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>64</v>
@@ -1871,34 +1805,34 @@
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="J12" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K12" s="4">
-        <v>0.14915254237288136</v>
+        <v>1.3018999999999999E-2</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1912,34 +1846,34 @@
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="J13" s="3">
+        <v>6</v>
+      </c>
+      <c r="K13" s="4">
+        <v>3.6006000000000003E-2</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="3">
-        <v>10</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0.13559322033898305</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1953,34 +1887,34 @@
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="J14" s="3">
+        <v>2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>2.7119000000000001E-2</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="3">
-        <v>14</v>
-      </c>
-      <c r="K14" s="4">
-        <v>3.8491147036181679E-2</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1994,34 +1928,34 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="J15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K15" s="4">
-        <v>1.2001920307249159E-2</v>
+        <v>6.7796999999999996E-2</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2035,34 +1969,34 @@
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J16" s="3">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="K16" s="4">
-        <v>1.8002880460873741E-2</v>
+        <v>0.24406800000000001</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2076,75 +2010,75 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.122034</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="3">
-        <v>10</v>
-      </c>
-      <c r="K17" s="4">
-        <v>6.00096015362458E-2</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="J18" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K18" s="4">
-        <v>6.6010561689870378E-2</v>
+        <v>5.4237E-2</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2158,34 +2092,34 @@
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J19" s="3">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K19" s="4">
-        <v>0.11401824291886703</v>
+        <v>3.0005E-2</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2199,34 +2133,34 @@
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K20" s="4">
-        <v>7.8012481997119548E-2</v>
+        <v>2.7119000000000001E-2</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2240,34 +2174,34 @@
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J21" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K21" s="4">
-        <v>8.4013442150744119E-2</v>
+        <v>0.20338999999999999</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2281,34 +2215,34 @@
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J22" s="3">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="K22" s="4">
-        <v>0.14402304368698993</v>
+        <v>9.4914999999999999E-2</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2322,34 +2256,34 @@
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J23" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K23" s="4">
-        <v>6.00096015362458E-2</v>
+        <v>5.4237E-2</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2363,75 +2297,75 @@
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5</v>
+      </c>
+      <c r="K24" s="4">
+        <v>2.2431E-2</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J24" s="3">
-        <v>8</v>
-      </c>
-      <c r="K24" s="4">
-        <v>4.8007681228996638E-2</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="J25" s="3">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K25" s="4">
-        <v>6.6010561689870378E-2</v>
+        <v>0.15701399999999999</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2445,34 +2379,34 @@
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J26" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K26" s="4">
-        <v>3.6005760921747482E-2</v>
+        <v>5.8319999999999997E-2</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2486,34 +2420,34 @@
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J27" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K27" s="4">
-        <v>3.00048007681229E-2</v>
+        <v>4.0375000000000001E-2</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2527,34 +2461,34 @@
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="J28" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K28" s="4">
-        <v>2.0893789901334881E-2</v>
+        <v>8.9720000000000008E-3</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2568,34 +2502,34 @@
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="J29" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29" s="4">
-        <v>8.97223094522453E-3</v>
+        <v>1.3457999999999999E-2</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2609,34 +2543,34 @@
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="J30" s="3">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K30" s="4">
-        <v>1.3458346417836794E-2</v>
+        <v>7.6263999999999998E-2</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2650,34 +2584,34 @@
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="J31" s="3">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K31" s="4">
-        <v>7.6263963034408508E-2</v>
+        <v>2.2431E-2</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2691,34 +2625,34 @@
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="J32" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K32" s="4">
-        <v>2.2430577363061324E-2</v>
+        <v>0.14915300000000001</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2732,34 +2666,34 @@
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="J33" s="3">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K33" s="4">
-        <v>5.8319501143959451E-2</v>
+        <v>0.127163</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2773,34 +2707,34 @@
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="J34" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K34" s="4">
-        <v>4.0375039253510381E-2</v>
+        <v>6.0817000000000003E-2</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2814,34 +2748,34 @@
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="J35" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K35" s="4">
-        <v>5.8319501143959451E-2</v>
+        <v>2.7643999999999998E-2</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2855,37 +2789,37 @@
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="J36" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K36" s="4">
-        <v>2.2430577363061324E-2</v>
+        <v>0.13559299999999999</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
@@ -2896,34 +2830,34 @@
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="J37" s="3">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="K37" s="4">
-        <v>0.15701404154142928</v>
+        <v>4.0375000000000001E-2</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2937,37 +2871,37 @@
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="J38" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K38" s="4">
-        <v>4.0375039253510381E-2</v>
+        <v>5.8319999999999997E-2</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2978,34 +2912,34 @@
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="J39" s="3">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="K39" s="4">
-        <v>6.0817161497207936E-2</v>
+        <v>0.52311600000000003</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3019,34 +2953,34 @@
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="J40" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K40" s="4">
-        <v>6.0817161497207936E-2</v>
+        <v>1.1058E-2</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3060,34 +2994,34 @@
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="J41" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K41" s="4">
-        <v>3.8701830043677783E-2</v>
+        <v>1.1058E-2</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3101,34 +3035,34 @@
         <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="J42" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K42" s="4">
-        <v>4.423066290706032E-2</v>
+        <v>1.6586E-2</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3142,34 +3076,34 @@
         <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="J43" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K43" s="4">
-        <v>5.52883286338254E-2</v>
+        <v>1.6586E-2</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3183,34 +3117,34 @@
         <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="J44" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K44" s="4">
-        <v>8.2932492950738096E-2</v>
+        <v>4.4230999999999999E-2</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3224,34 +3158,34 @@
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="J45" s="3">
         <v>8</v>
       </c>
       <c r="K45" s="4">
-        <v>4.423066290706032E-2</v>
+        <v>4.4230999999999999E-2</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3265,34 +3199,34 @@
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="J46" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K46" s="4">
-        <v>4.9759495770442863E-2</v>
+        <v>1.2002000000000001E-2</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>214</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3306,34 +3240,34 @@
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="J47" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K47" s="4">
-        <v>4.9759495770442863E-2</v>
+        <v>1.8003000000000002E-2</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>218</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3347,37 +3281,37 @@
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="J48" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K48" s="4">
-        <v>4.9759495770442863E-2</v>
+        <v>6.0010000000000001E-2</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>13</v>
       </c>
@@ -3388,34 +3322,34 @@
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="J49" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K49" s="4">
-        <v>5.52883286338254E-2</v>
+        <v>6.6011E-2</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3429,34 +3363,34 @@
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="J50" s="3">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="K50" s="4">
-        <v>4.423066290706032E-2</v>
+        <v>0.11401799999999999</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3470,34 +3404,34 @@
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="J51" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K51" s="4">
-        <v>6.0817161497207936E-2</v>
+        <v>3.8702E-2</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3511,34 +3445,34 @@
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="J52" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K52" s="4">
-        <v>7.1874827223973023E-2</v>
+        <v>3.8702E-2</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3552,34 +3486,34 @@
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="J53" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K53" s="4">
-        <v>1.105766572676508E-2</v>
+        <v>6.6346000000000002E-2</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3593,34 +3527,34 @@
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="J54" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K54" s="4">
-        <v>1.658649859014762E-2</v>
+        <v>6.6346000000000002E-2</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3634,34 +3568,34 @@
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="J55" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K55" s="4">
-        <v>4.423066290706032E-2</v>
+        <v>8.2932000000000006E-2</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>248</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3675,34 +3609,34 @@
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="J56" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K56" s="4">
-        <v>3.8701830043677783E-2</v>
+        <v>7.8011999999999998E-2</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>252</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3716,34 +3650,34 @@
         <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="J57" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K57" s="4">
-        <v>6.6345994360590479E-2</v>
+        <v>8.4013000000000004E-2</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>256</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3757,34 +3691,34 @@
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="J58" s="3">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K58" s="4">
-        <v>8.2932492950738096E-2</v>
+        <v>0.14402300000000001</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>260</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3798,34 +3732,34 @@
         <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="J59" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K59" s="4">
-        <v>4.423066290706032E-2</v>
+        <v>6.0010000000000001E-2</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>263</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3839,34 +3773,34 @@
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="J60" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K60" s="4">
-        <v>1.105766572676508E-2</v>
+        <v>4.8008000000000002E-2</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>267</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3880,34 +3814,34 @@
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="J61" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K61" s="4">
-        <v>1.658649859014762E-2</v>
+        <v>6.6011E-2</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>271</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3921,34 +3855,34 @@
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="J62" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K62" s="4">
-        <v>2.76441643169127E-2</v>
+        <v>4.4230999999999999E-2</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3962,37 +3896,37 @@
         <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="J63" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K63" s="4">
-        <v>4.423066290706032E-2</v>
+        <v>1.6586E-2</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>13</v>
       </c>
@@ -4003,34 +3937,34 @@
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>282</v>
+        <v>223</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="J64" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K64" s="4">
-        <v>7.1874827223973023E-2</v>
+        <v>2.2114999999999999E-2</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4044,37 +3978,37 @@
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>285</v>
+        <v>144</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="J65" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K65" s="4">
-        <v>8.4235860409145602E-2</v>
+        <v>2.2114999999999999E-2</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>13</v>
       </c>
@@ -4085,34 +4019,34 @@
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>290</v>
+        <v>144</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>293</v>
+        <v>233</v>
       </c>
       <c r="J66" s="3">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="K66" s="4">
-        <v>0.52311607521560866</v>
+        <v>1.1058E-2</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>294</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4126,34 +4060,34 @@
         <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>295</v>
+        <v>144</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>297</v>
+        <v>232</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>298</v>
+        <v>233</v>
       </c>
       <c r="J67" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K67" s="4">
-        <v>2.4855527247871746E-2</v>
+        <v>1.1058E-2</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4167,34 +4101,34 @@
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>300</v>
+        <v>144</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="J68" s="3">
         <v>3</v>
       </c>
       <c r="K68" s="4">
-        <v>1.4181044670290712E-2</v>
+        <v>1.6586E-2</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>303</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4208,34 +4142,34 @@
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>304</v>
+        <v>144</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="J69" s="3">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="K69" s="4">
-        <v>0.25357068929828191</v>
+        <v>1.6586E-2</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>307</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4249,34 +4183,731 @@
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>309</v>
+        <v>238</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>311</v>
+        <v>240</v>
       </c>
       <c r="J70" s="3">
+        <v>5</v>
+      </c>
+      <c r="K70" s="4">
+        <v>2.7643999999999998E-2</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J71" s="3">
+        <v>8</v>
+      </c>
+      <c r="K71" s="4">
+        <v>4.4230999999999999E-2</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J72" s="3">
+        <v>13</v>
+      </c>
+      <c r="K72" s="4">
+        <v>7.1874999999999994E-2</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J73" s="3">
+        <v>13</v>
+      </c>
+      <c r="K73" s="4">
+        <v>7.1874999999999994E-2</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J74" s="3">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4">
+        <v>6.0817000000000003E-2</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J75" s="3">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4">
+        <v>6.0817000000000003E-2</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J76" s="3">
         <v>7</v>
       </c>
-      <c r="K70" s="4">
-        <v>1.8226318804353488E-2</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>312</v>
+      <c r="K76" s="4">
+        <v>3.8702E-2</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J77" s="3">
+        <v>8</v>
+      </c>
+      <c r="K77" s="4">
+        <v>4.4230999999999999E-2</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J78" s="3">
+        <v>10</v>
+      </c>
+      <c r="K78" s="4">
+        <v>5.5287999999999997E-2</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J79" s="3">
+        <v>15</v>
+      </c>
+      <c r="K79" s="4">
+        <v>8.2932000000000006E-2</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H80" s="3">
+        <v>0</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J80" s="3">
+        <v>8</v>
+      </c>
+      <c r="K80" s="4">
+        <v>4.4230999999999999E-2</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J81" s="3">
+        <v>9</v>
+      </c>
+      <c r="K81" s="4">
+        <v>4.9758999999999998E-2</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J82" s="3">
+        <v>9</v>
+      </c>
+      <c r="K82" s="4">
+        <v>4.9758999999999998E-2</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J83" s="3">
+        <v>9</v>
+      </c>
+      <c r="K83" s="4">
+        <v>4.9758999999999998E-2</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H84" s="3">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J84" s="3">
+        <v>10</v>
+      </c>
+      <c r="K84" s="4">
+        <v>5.5287999999999997E-2</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H85" s="3">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J85" s="3">
+        <v>8</v>
+      </c>
+      <c r="K85" s="4">
+        <v>4.4230999999999999E-2</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J86" s="3">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4">
+        <v>6.0817000000000003E-2</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J87" s="3">
+        <v>13</v>
+      </c>
+      <c r="K87" s="4">
+        <v>7.1874999999999994E-2</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/coded_segments/md_7_1.xlsx
+++ b/data/coded_segments/md_7_1.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Whiting/Repositories/amr-db/data/coded_segments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{196B7C9A-C24C-F141-8E59-333783D30F09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="295">
   <si>
     <t>Color</t>
   </si>
@@ -71,93 +67,310 @@
     <t/>
   </si>
   <si>
-    <t>7340</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Patient:Age</t>
+  </si>
+  <si>
+    <t>1: 1611</t>
+  </si>
+  <si>
+    <t>1: 1612</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>mdualeh</t>
+  </si>
+  <si>
+    <t>8/28/18 17:22:00</t>
+  </si>
+  <si>
+    <t>Patient:Sex</t>
+  </si>
+  <si>
+    <t>1: 1623</t>
+  </si>
+  <si>
+    <t>1: 1627</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>Location:Hospital name</t>
+  </si>
+  <si>
+    <t>1: 1674</t>
+  </si>
+  <si>
+    <t>1: 1691</t>
+  </si>
+  <si>
+    <t>Casamance Hospital</t>
+  </si>
+  <si>
+    <t>Location:City</t>
+  </si>
+  <si>
+    <t>1: 1694</t>
+  </si>
+  <si>
+    <t>1: 1702</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Location:Country</t>
+  </si>
+  <si>
+    <t>1: 509</t>
+  </si>
+  <si>
+    <t>1: 514</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>8/28/18 17:23:00</t>
+  </si>
+  <si>
+    <t>Patient:Symptoms/Disease</t>
+  </si>
+  <si>
+    <t>1: 1721</t>
+  </si>
+  <si>
+    <t>1: 1724</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>Event day</t>
+  </si>
+  <si>
+    <t>1: 2178</t>
+  </si>
+  <si>
+    <t>1: 2179</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Event month</t>
+  </si>
+  <si>
+    <t>1: 2181</t>
+  </si>
+  <si>
+    <t>1: 2187</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Event year</t>
+  </si>
+  <si>
+    <t>1: 2189</t>
+  </si>
+  <si>
+    <t>1: 2192</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>Event date</t>
+  </si>
+  <si>
+    <t>29 January 2015</t>
+  </si>
+  <si>
+    <t>Drug Resisted</t>
+  </si>
+  <si>
+    <t>1: 2752</t>
+  </si>
+  <si>
+    <t>1: 2762</t>
+  </si>
+  <si>
+    <t>clindamycin</t>
+  </si>
+  <si>
+    <t>Bacteria:Binomial (genus species)</t>
+  </si>
+  <si>
+    <t>1: 2840</t>
+  </si>
+  <si>
+    <t>1: 2850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F. hominis </t>
+  </si>
+  <si>
+    <t>8/28/18 17:24:00</t>
+  </si>
+  <si>
+    <t>1845</t>
+  </si>
+  <si>
+    <t>Exclusion:Not clinical case in human patient</t>
+  </si>
+  <si>
+    <t>1: 18</t>
+  </si>
+  <si>
+    <t>1: 31</t>
+  </si>
+  <si>
+    <t>E´ volution de</t>
+  </si>
+  <si>
+    <t>1874</t>
+  </si>
+  <si>
+    <t>2: 1030</t>
+  </si>
+  <si>
+    <t>2: 1031</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2: 1042</t>
+  </si>
+  <si>
+    <t>2: 1044</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>2: 1365</t>
+  </si>
+  <si>
+    <t>2: 1375</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> high fever</t>
+  </si>
+  <si>
+    <t>8/28/18 17:25:00</t>
+  </si>
+  <si>
+    <t>2: 1378</t>
+  </si>
+  <si>
+    <t>2: 1388</t>
+  </si>
+  <si>
+    <t>chest 
+pain</t>
+  </si>
+  <si>
+    <t>2: 1395</t>
+  </si>
+  <si>
+    <t>2: 1413</t>
+  </si>
+  <si>
+    <t>shortness of breath</t>
+  </si>
+  <si>
+    <t>2: 3712</t>
+  </si>
+  <si>
+    <t>2: 3724</t>
+  </si>
+  <si>
+    <t>K. pneumoniae</t>
+  </si>
+  <si>
+    <t>8/28/18 17:26:00</t>
+  </si>
+  <si>
+    <t>2: 3791</t>
+  </si>
+  <si>
+    <t>2: 3805</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cephalosporins</t>
+  </si>
+  <si>
+    <t>2: 3809</t>
+  </si>
+  <si>
+    <t>2: 3832</t>
+  </si>
+  <si>
+    <t>piperacillin/tazobactam,</t>
+  </si>
+  <si>
+    <t>2: 3834</t>
+  </si>
+  <si>
+    <t>2: 3843</t>
+  </si>
+  <si>
+    <t>quinolones</t>
+  </si>
+  <si>
+    <t>2: 3849</t>
+  </si>
+  <si>
+    <t>2: 3856</t>
+  </si>
+  <si>
+    <t>amikacin</t>
+  </si>
+  <si>
+    <t>2: 3891</t>
+  </si>
+  <si>
+    <t>2: 3901</t>
+  </si>
+  <si>
+    <t>carbapenems</t>
+  </si>
+  <si>
+    <t>1: 1570</t>
+  </si>
+  <si>
+    <t>1: 1575</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>First Surveillance Study (of a particular resistance) in Countr</t>
+  </si>
+  <si>
+    <t>1: 2115</t>
+  </si>
+  <si>
+    <t>1: 2119</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>5390</t>
   </si>
   <si>
     <t>Exclusion:Review article</t>
   </si>
   <si>
-    <t>1: 0</t>
-  </si>
-  <si>
-    <t>1: 6</t>
-  </si>
-  <si>
-    <t>Multipl</t>
-  </si>
-  <si>
-    <t>mdualeh</t>
-  </si>
-  <si>
-    <t>8/28/18 18:08:00</t>
-  </si>
-  <si>
-    <t>16252</t>
-  </si>
-  <si>
-    <t>1: 2</t>
-  </si>
-  <si>
-    <t>The</t>
-  </si>
-  <si>
-    <t>8/28/18 18:09:00</t>
-  </si>
-  <si>
-    <t>16716</t>
-  </si>
-  <si>
-    <t>Exclusion:Not clinical case in human patient</t>
-  </si>
-  <si>
-    <t>1: 50</t>
-  </si>
-  <si>
-    <t>Tn125-Related Acquisition of blaNDM-Like Genes in</t>
-  </si>
-  <si>
-    <t>1845</t>
-  </si>
-  <si>
-    <t>1: 18</t>
-  </si>
-  <si>
-    <t>1: 31</t>
-  </si>
-  <si>
-    <t>E´ volution de</t>
-  </si>
-  <si>
-    <t>8/28/18 17:24:00</t>
-  </si>
-  <si>
-    <t>14062</t>
-  </si>
-  <si>
-    <t>1: 38</t>
-  </si>
-  <si>
-    <t>1: 45</t>
-  </si>
-  <si>
-    <t>Emerging</t>
-  </si>
-  <si>
-    <t>20588</t>
-  </si>
-  <si>
-    <t>1: 85</t>
-  </si>
-  <si>
-    <t>1: 91</t>
-  </si>
-  <si>
-    <t>Complex</t>
-  </si>
-  <si>
-    <t>5390</t>
-  </si>
-  <si>
     <t>1: 336</t>
   </si>
   <si>
@@ -170,196 +383,73 @@
     <t>8/28/18 17:27:00</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Location:Country</t>
-  </si>
-  <si>
-    <t>1: 509</t>
-  </si>
-  <si>
-    <t>1: 514</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>8/28/18 17:23:00</t>
-  </si>
-  <si>
-    <t>Location:Hospital name</t>
-  </si>
-  <si>
-    <t>1: 733</t>
-  </si>
-  <si>
-    <t>1: 768</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ramo´ n y Cajal University Hospital</t>
-  </si>
-  <si>
-    <t>Sonia</t>
-  </si>
-  <si>
-    <t>10/15/18 16:16:00</t>
+    <t>6655</t>
+  </si>
+  <si>
+    <t>1: 2526</t>
+  </si>
+  <si>
+    <t>1: 2528</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57</t>
+  </si>
+  <si>
+    <t>8/28/18 17:55:00</t>
+  </si>
+  <si>
+    <t>1: 2539</t>
+  </si>
+  <si>
+    <t>1: 2541</t>
   </si>
   <si>
     <t>Location:State/Province/District</t>
   </si>
   <si>
-    <t>1: 771</t>
-  </si>
-  <si>
-    <t>1: 776</t>
-  </si>
-  <si>
-    <t>Madrid</t>
-  </si>
-  <si>
-    <t>10/15/18 16:17:00</t>
-  </si>
-  <si>
-    <t>1: 779</t>
-  </si>
-  <si>
-    <t>1: 783</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>1874</t>
-  </si>
-  <si>
-    <t>1: 1570</t>
-  </si>
-  <si>
-    <t>1: 1575</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>8/28/18 17:26:00</t>
-  </si>
-  <si>
-    <t>Patient:Age</t>
-  </si>
-  <si>
-    <t>1: 1611</t>
-  </si>
-  <si>
-    <t>1: 1612</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>8/28/18 17:22:00</t>
-  </si>
-  <si>
-    <t>Patient:Sex</t>
-  </si>
-  <si>
-    <t>1: 1623</t>
-  </si>
-  <si>
-    <t>1: 1627</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>1: 1674</t>
-  </si>
-  <si>
-    <t>1: 1691</t>
-  </si>
-  <si>
-    <t>Casamance Hospital</t>
-  </si>
-  <si>
-    <t>Location:City</t>
-  </si>
-  <si>
-    <t>1: 1694</t>
-  </si>
-  <si>
-    <t>1: 1702</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Patient:Symptoms/Disease</t>
-  </si>
-  <si>
-    <t>1: 1721</t>
-  </si>
-  <si>
-    <t>1: 1724</t>
-  </si>
-  <si>
-    <t>pain</t>
-  </si>
-  <si>
-    <t>First Surveillance Study (of a particular resistance) in Countr</t>
-  </si>
-  <si>
-    <t>1: 2115</t>
-  </si>
-  <si>
-    <t>1: 2119</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>Event day</t>
-  </si>
-  <si>
-    <t>1: 2178</t>
-  </si>
-  <si>
-    <t>1: 2179</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Event date</t>
-  </si>
-  <si>
-    <t>1: 2192</t>
-  </si>
-  <si>
-    <t>29 January 2015</t>
-  </si>
-  <si>
-    <t>Event month</t>
-  </si>
-  <si>
-    <t>1: 2181</t>
-  </si>
-  <si>
-    <t>1: 2187</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>Event year</t>
-  </si>
-  <si>
-    <t>1: 2189</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>6655</t>
+    <t>1: 2632</t>
+  </si>
+  <si>
+    <t>1: 2648</t>
+  </si>
+  <si>
+    <t>Florence province</t>
+  </si>
+  <si>
+    <t>1: 2651</t>
+  </si>
+  <si>
+    <t>1: 2655</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>1: 2497</t>
+  </si>
+  <si>
+    <t>1: 2509</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>1: 2514</t>
+  </si>
+  <si>
+    <t>1: 2522</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>8/28/18 17:56:00</t>
+  </si>
+  <si>
+    <t>1: 4535</t>
+  </si>
+  <si>
+    <t>1: 4547</t>
   </si>
   <si>
     <t>Bacteria:Strain</t>
@@ -387,139 +477,275 @@
 been observed in our region.</t>
   </si>
   <si>
-    <t>1: 2497</t>
-  </si>
-  <si>
-    <t>1: 2509</t>
-  </si>
-  <si>
-    <t>November 2010</t>
-  </si>
-  <si>
-    <t>8/28/18 17:55:00</t>
-  </si>
-  <si>
-    <t>1: 2514</t>
-  </si>
-  <si>
-    <t>1: 2522</t>
-  </si>
-  <si>
-    <t>June 2011</t>
-  </si>
-  <si>
-    <t>8/28/18 17:56:00</t>
-  </si>
-  <si>
-    <t>1: 2526</t>
-  </si>
-  <si>
-    <t>1: 2528</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 57</t>
-  </si>
-  <si>
-    <t>1: 2539</t>
-  </si>
-  <si>
-    <t>1: 2541</t>
-  </si>
-  <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>1: 2632</t>
-  </si>
-  <si>
-    <t>1: 2648</t>
-  </si>
-  <si>
-    <t>Florence province</t>
-  </si>
-  <si>
-    <t>1: 2651</t>
-  </si>
-  <si>
-    <t>1: 2655</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Drug Resisted</t>
-  </si>
-  <si>
-    <t>1: 2752</t>
-  </si>
-  <si>
-    <t>1: 2762</t>
-  </si>
-  <si>
-    <t>clindamycin</t>
+    <t>1: 3697</t>
+  </si>
+  <si>
+    <t>1: 3705</t>
+  </si>
+  <si>
+    <t>all drugs</t>
   </si>
   <si>
     <t>6737</t>
   </si>
   <si>
-    <t>1: 2801</t>
-  </si>
-  <si>
-    <t>1: 2823</t>
-  </si>
-  <si>
-    <t>Nagasaki Medical Center</t>
-  </si>
-  <si>
-    <t>10/15/18 16:21:00</t>
-  </si>
-  <si>
-    <t>1: 2826</t>
-  </si>
-  <si>
-    <t>1: 2836</t>
-  </si>
-  <si>
-    <t>Ohmura City</t>
-  </si>
-  <si>
-    <t>1: 2839</t>
-  </si>
-  <si>
-    <t>1: 2843</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Bacteria:Binomial (genus species)</t>
-  </si>
-  <si>
-    <t>1: 2840</t>
-  </si>
-  <si>
-    <t>1: 2850</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F. hominis </t>
-  </si>
-  <si>
-    <t>1: 3697</t>
-  </si>
-  <si>
-    <t>1: 3705</t>
-  </si>
-  <si>
-    <t>all drugs</t>
-  </si>
-  <si>
-    <t>1: 4535</t>
-  </si>
-  <si>
-    <t>1: 4547</t>
-  </si>
-  <si>
-    <t>K. pneumoniae</t>
+    <t>4: 62</t>
+  </si>
+  <si>
+    <t>4: 72</t>
+  </si>
+  <si>
+    <t>ceftriaxone</t>
+  </si>
+  <si>
+    <t>8/28/18 17:58:00</t>
+  </si>
+  <si>
+    <t>4: 75</t>
+  </si>
+  <si>
+    <t>4: 85</t>
+  </si>
+  <si>
+    <t>cefpodoxime</t>
+  </si>
+  <si>
+    <t>4: 87</t>
+  </si>
+  <si>
+    <t>4: 93</t>
+  </si>
+  <si>
+    <t>proxeti</t>
+  </si>
+  <si>
+    <t>4: 98</t>
+  </si>
+  <si>
+    <t>4: 105</t>
+  </si>
+  <si>
+    <t>cefepime</t>
+  </si>
+  <si>
+    <t>4: 108</t>
+  </si>
+  <si>
+    <t>4: 117</t>
+  </si>
+  <si>
+    <t>cefozopran</t>
+  </si>
+  <si>
+    <t>4: 120</t>
+  </si>
+  <si>
+    <t>4: 134</t>
+  </si>
+  <si>
+    <t>flomoxef sodium</t>
+  </si>
+  <si>
+    <t>4: 137</t>
+  </si>
+  <si>
+    <t>4: 144</t>
+  </si>
+  <si>
+    <t>imipenem</t>
+  </si>
+  <si>
+    <t>8/28/18 17:59:00</t>
+  </si>
+  <si>
+    <t>4: 148</t>
+  </si>
+  <si>
+    <t>4: 156</t>
+  </si>
+  <si>
+    <t>meropenem</t>
+  </si>
+  <si>
+    <t>4: 159</t>
+  </si>
+  <si>
+    <t>4: 167</t>
+  </si>
+  <si>
+    <t>aztreonam</t>
+  </si>
+  <si>
+    <t>4: 170</t>
+  </si>
+  <si>
+    <t>4: 178</t>
+  </si>
+  <si>
+    <t>entamicin</t>
+  </si>
+  <si>
+    <t>4: 181</t>
+  </si>
+  <si>
+    <t>4: 190</t>
+  </si>
+  <si>
+    <t>tobramycin</t>
+  </si>
+  <si>
+    <t>4: 194</t>
+  </si>
+  <si>
+    <t>4: 201</t>
+  </si>
+  <si>
+    <t>4: 204</t>
+  </si>
+  <si>
+    <t>4: 214</t>
+  </si>
+  <si>
+    <t>minocycline</t>
+  </si>
+  <si>
+    <t>4: 221</t>
+  </si>
+  <si>
+    <t>4: 233</t>
+  </si>
+  <si>
+    <t>ciprofloxacin</t>
+  </si>
+  <si>
+    <t>2: 66</t>
+  </si>
+  <si>
+    <t>2: 67</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>2: 78</t>
+  </si>
+  <si>
+    <t>2: 80</t>
+  </si>
+  <si>
+    <t>2: 153</t>
+  </si>
+  <si>
+    <t>2: 160</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>2: 1570</t>
+  </si>
+  <si>
+    <t>2: 1576</t>
+  </si>
+  <si>
+    <t>39.1° C</t>
+  </si>
+  <si>
+    <t>8/28/18 18:00:00</t>
+  </si>
+  <si>
+    <t>2: 1582</t>
+  </si>
+  <si>
+    <t>2: 1593</t>
+  </si>
+  <si>
+    <t>stomach pain</t>
+  </si>
+  <si>
+    <t>2: 2116</t>
+  </si>
+  <si>
+    <t>2: 2130</t>
+  </si>
+  <si>
+    <t>A. xylosoxidans</t>
+  </si>
+  <si>
+    <t>3: 106</t>
+  </si>
+  <si>
+    <t>3: 113</t>
+  </si>
+  <si>
+    <t>8/28/18 18:01:00</t>
+  </si>
+  <si>
+    <t>3: 116</t>
+  </si>
+  <si>
+    <t>3: 117</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>3: 162</t>
+  </si>
+  <si>
+    <t>3: 164</t>
+  </si>
+  <si>
+    <t>she</t>
+  </si>
+  <si>
+    <t>3: 1008</t>
+  </si>
+  <si>
+    <t>3: 1012</t>
+  </si>
+  <si>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>8/28/18 18:02:00</t>
+  </si>
+  <si>
+    <t>3: 1039</t>
+  </si>
+  <si>
+    <t>3: 1046</t>
+  </si>
+  <si>
+    <t>headache</t>
+  </si>
+  <si>
+    <t>Patient:Outcome</t>
+  </si>
+  <si>
+    <t>3: 1688</t>
+  </si>
+  <si>
+    <t>3: 1701</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dis- 
+charged</t>
+  </si>
+  <si>
+    <t>7340</t>
+  </si>
+  <si>
+    <t>1: 0</t>
+  </si>
+  <si>
+    <t>1: 6</t>
+  </si>
+  <si>
+    <t>Multipl</t>
+  </si>
+  <si>
+    <t>8/28/18 18:08:00</t>
   </si>
   <si>
     <t>7940</t>
@@ -535,16 +761,115 @@
 north I</t>
   </si>
   <si>
-    <t>2: 66</t>
-  </si>
-  <si>
-    <t>2: 67</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>8/28/18 17:59:00</t>
+    <t>14062</t>
+  </si>
+  <si>
+    <t>1: 38</t>
+  </si>
+  <si>
+    <t>1: 45</t>
+  </si>
+  <si>
+    <t>Emerging</t>
+  </si>
+  <si>
+    <t>16252</t>
+  </si>
+  <si>
+    <t>1: 2</t>
+  </si>
+  <si>
+    <t>The</t>
+  </si>
+  <si>
+    <t>8/28/18 18:09:00</t>
+  </si>
+  <si>
+    <t>16716</t>
+  </si>
+  <si>
+    <t>1: 50</t>
+  </si>
+  <si>
+    <t>Tn125-Related Acquisition of blaNDM-Like Genes in</t>
+  </si>
+  <si>
+    <t>20588</t>
+  </si>
+  <si>
+    <t>1: 85</t>
+  </si>
+  <si>
+    <t>1: 91</t>
+  </si>
+  <si>
+    <t>Complex</t>
+  </si>
+  <si>
+    <t>1: 733</t>
+  </si>
+  <si>
+    <t>1: 768</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ramo´ n y Cajal University Hospital</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>10/15/18 16:16:00</t>
+  </si>
+  <si>
+    <t>1: 771</t>
+  </si>
+  <si>
+    <t>1: 776</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>10/15/18 16:17:00</t>
+  </si>
+  <si>
+    <t>1: 779</t>
+  </si>
+  <si>
+    <t>1: 783</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>1: 2801</t>
+  </si>
+  <si>
+    <t>1: 2823</t>
+  </si>
+  <si>
+    <t>Nagasaki Medical Center</t>
+  </si>
+  <si>
+    <t>10/15/18 16:21:00</t>
+  </si>
+  <si>
+    <t>1: 2826</t>
+  </si>
+  <si>
+    <t>1: 2836</t>
+  </si>
+  <si>
+    <t>Ohmura City</t>
+  </si>
+  <si>
+    <t>1: 2839</t>
+  </si>
+  <si>
+    <t>1: 2843</t>
+  </si>
+  <si>
+    <t>Japan</t>
   </si>
   <si>
     <t>A</t>
@@ -553,155 +878,19 @@
     <t>10/15/18 16:22:00</t>
   </si>
   <si>
-    <t>2: 78</t>
-  </si>
-  <si>
-    <t>2: 80</t>
-  </si>
-  <si>
-    <t>2: 153</t>
-  </si>
-  <si>
-    <t>2: 160</t>
-  </si>
-  <si>
-    <t>May 2007</t>
-  </si>
-  <si>
-    <t>2: 1030</t>
-  </si>
-  <si>
-    <t>2: 1031</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2: 1042</t>
-  </si>
-  <si>
-    <t>2: 1044</t>
-  </si>
-  <si>
-    <t>2: 1365</t>
-  </si>
-  <si>
-    <t>2: 1375</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> high fever</t>
-  </si>
-  <si>
-    <t>8/28/18 17:25:00</t>
-  </si>
-  <si>
-    <t>2: 1378</t>
-  </si>
-  <si>
-    <t>2: 1388</t>
-  </si>
-  <si>
-    <t>chest 
-pain</t>
-  </si>
-  <si>
-    <t>2: 1395</t>
-  </si>
-  <si>
-    <t>2: 1413</t>
-  </si>
-  <si>
-    <t>shortness of breath</t>
-  </si>
-  <si>
-    <t>2: 1570</t>
-  </si>
-  <si>
-    <t>2: 1576</t>
-  </si>
-  <si>
-    <t>39.1° C</t>
-  </si>
-  <si>
-    <t>8/28/18 18:00:00</t>
-  </si>
-  <si>
-    <t>2: 1582</t>
-  </si>
-  <si>
-    <t>2: 1593</t>
-  </si>
-  <si>
-    <t>stomach pain</t>
-  </si>
-  <si>
-    <t>2: 2116</t>
-  </si>
-  <si>
-    <t>2: 2130</t>
-  </si>
-  <si>
-    <t>A. xylosoxidans</t>
-  </si>
-  <si>
-    <t>2: 3712</t>
-  </si>
-  <si>
-    <t>2: 3724</t>
-  </si>
-  <si>
-    <t>2: 3791</t>
-  </si>
-  <si>
-    <t>2: 3805</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cephalosporins</t>
-  </si>
-  <si>
-    <t>2: 3809</t>
-  </si>
-  <si>
-    <t>2: 3832</t>
-  </si>
-  <si>
-    <t>piperacillin/tazobactam,</t>
-  </si>
-  <si>
-    <t>2: 3834</t>
-  </si>
-  <si>
-    <t>2: 3843</t>
-  </si>
-  <si>
-    <t>quinolones</t>
-  </si>
-  <si>
-    <t>2: 3849</t>
-  </si>
-  <si>
-    <t>2: 3856</t>
-  </si>
-  <si>
-    <t>amikacin</t>
-  </si>
-  <si>
-    <t>2: 3891</t>
-  </si>
-  <si>
-    <t>2: 3901</t>
-  </si>
-  <si>
-    <t>carbapenems</t>
-  </si>
-  <si>
-    <t>3: 106</t>
-  </si>
-  <si>
-    <t>3: 113</t>
-  </si>
-  <si>
-    <t>8/28/18 18:01:00</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>10/15/18 16:23:00</t>
+  </si>
+  <si>
+    <t>3: 110</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>10/15/18 16:24:00</t>
   </si>
   <si>
     <t>3: 108</t>
@@ -710,203 +899,22 @@
     <t>May</t>
   </si>
   <si>
-    <t>10/15/18 16:24:00</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>3: 110</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>3: 116</t>
-  </si>
-  <si>
-    <t>3: 117</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>10/15/18 16:23:00</t>
-  </si>
-  <si>
-    <t>3: 162</t>
-  </si>
-  <si>
-    <t>3: 164</t>
-  </si>
-  <si>
-    <t>she</t>
-  </si>
-  <si>
-    <t>3: 1008</t>
-  </si>
-  <si>
-    <t>3: 1012</t>
-  </si>
-  <si>
-    <t>fever</t>
-  </si>
-  <si>
-    <t>8/28/18 18:02:00</t>
-  </si>
-  <si>
-    <t>3: 1039</t>
-  </si>
-  <si>
-    <t>3: 1046</t>
-  </si>
-  <si>
-    <t>headache</t>
-  </si>
-  <si>
-    <t>Patient:Outcome</t>
-  </si>
-  <si>
-    <t>3: 1688</t>
-  </si>
-  <si>
-    <t>3: 1701</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dis- 
-charged</t>
-  </si>
-  <si>
-    <t>4: 62</t>
-  </si>
-  <si>
-    <t>4: 72</t>
-  </si>
-  <si>
-    <t>ceftriaxone</t>
-  </si>
-  <si>
-    <t>8/28/18 17:58:00</t>
-  </si>
-  <si>
-    <t>4: 75</t>
-  </si>
-  <si>
-    <t>4: 85</t>
-  </si>
-  <si>
-    <t>cefpodoxime</t>
-  </si>
-  <si>
-    <t>4: 87</t>
-  </si>
-  <si>
-    <t>4: 93</t>
-  </si>
-  <si>
-    <t>proxeti</t>
-  </si>
-  <si>
-    <t>4: 98</t>
-  </si>
-  <si>
-    <t>4: 105</t>
-  </si>
-  <si>
-    <t>cefepime</t>
-  </si>
-  <si>
-    <t>4: 108</t>
-  </si>
-  <si>
-    <t>4: 117</t>
-  </si>
-  <si>
-    <t>cefozopran</t>
-  </si>
-  <si>
-    <t>4: 120</t>
-  </si>
-  <si>
-    <t>4: 134</t>
-  </si>
-  <si>
-    <t>flomoxef sodium</t>
-  </si>
-  <si>
-    <t>4: 137</t>
-  </si>
-  <si>
-    <t>4: 144</t>
-  </si>
-  <si>
-    <t>imipenem</t>
-  </si>
-  <si>
-    <t>4: 148</t>
-  </si>
-  <si>
-    <t>4: 156</t>
-  </si>
-  <si>
-    <t>meropenem</t>
-  </si>
-  <si>
-    <t>4: 159</t>
-  </si>
-  <si>
-    <t>4: 167</t>
-  </si>
-  <si>
-    <t>aztreonam</t>
-  </si>
-  <si>
-    <t>4: 170</t>
-  </si>
-  <si>
-    <t>4: 178</t>
-  </si>
-  <si>
-    <t>entamicin</t>
-  </si>
-  <si>
-    <t>4: 181</t>
-  </si>
-  <si>
-    <t>4: 190</t>
-  </si>
-  <si>
-    <t>tobramycin</t>
-  </si>
-  <si>
-    <t>4: 194</t>
-  </si>
-  <si>
-    <t>4: 201</t>
-  </si>
-  <si>
-    <t>4: 204</t>
-  </si>
-  <si>
-    <t>4: 214</t>
-  </si>
-  <si>
-    <t>minocycline</t>
-  </si>
-  <si>
-    <t>4: 221</t>
-  </si>
-  <si>
-    <t>4: 233</t>
-  </si>
-  <si>
-    <t>ciprofloxacin</t>
+    <t>1: 1745</t>
+  </si>
+  <si>
+    <t>1: 1765</t>
+  </si>
+  <si>
+    <t>Klebsiella pneumoniae</t>
+  </si>
+  <si>
+    <t>11/8/18 14:33:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1056,10 +1064,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1082,7 +1093,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1094,7 +1105,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1111,9 +1122,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1141,14 +1152,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1176,6 +1204,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1327,8 +1372,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1413,10 +1458,10 @@
         <v>19</v>
       </c>
       <c r="J2" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K2" s="4">
-        <v>8.4236000000000005E-2</v>
+        <v>2.7119000000000001E-2</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>20</v>
@@ -1436,34 +1481,34 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3" s="4">
-        <v>1.4180999999999999E-2</v>
+        <v>6.7796999999999996E-2</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1477,13 +1522,13 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>28</v>
@@ -1495,16 +1540,16 @@
         <v>29</v>
       </c>
       <c r="J4" s="3">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="K4" s="4">
-        <v>0.25357099999999999</v>
+        <v>0.24406800000000001</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1518,10 +1563,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>31</v>
@@ -1536,16 +1581,16 @@
         <v>33</v>
       </c>
       <c r="J5" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K5" s="4">
-        <v>3.8490999999999997E-2</v>
+        <v>0.122034</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1559,34 +1604,34 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="3">
+        <v>6</v>
+      </c>
+      <c r="K6" s="4">
+        <v>8.1355999999999998E-2</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="J6" s="3">
-        <v>8</v>
-      </c>
-      <c r="K6" s="4">
-        <v>2.4856E-2</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1600,10 +1645,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>40</v>
@@ -1618,16 +1663,16 @@
         <v>42</v>
       </c>
       <c r="J7" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K7" s="4">
-        <v>1.8225999999999999E-2</v>
+        <v>5.4237E-2</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1641,10 +1686,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>44</v>
@@ -1659,16 +1704,16 @@
         <v>46</v>
       </c>
       <c r="J8" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K8" s="4">
-        <v>2.0893999999999999E-2</v>
+        <v>2.7119000000000001E-2</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1682,34 +1727,34 @@
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="J9" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K9" s="4">
-        <v>8.1355999999999998E-2</v>
+        <v>9.4914999999999999E-2</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1723,34 +1768,34 @@
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="J10" s="3">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="K10" s="4">
-        <v>9.1132000000000005E-2</v>
+        <v>5.4237E-2</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1764,34 +1809,34 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J11" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K11" s="4">
-        <v>1.5623E-2</v>
+        <v>0.20338999999999999</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1805,34 +1850,34 @@
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J12" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K12" s="4">
-        <v>1.3018999999999999E-2</v>
+        <v>0.14915300000000001</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1846,34 +1891,34 @@
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J13" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" s="4">
-        <v>3.6006000000000003E-2</v>
+        <v>0.13559299999999999</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1887,34 +1932,34 @@
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J14" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K14" s="4">
-        <v>2.7119000000000001E-2</v>
+        <v>3.8490999999999997E-2</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1928,34 +1973,34 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J15" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K15" s="4">
-        <v>6.7796999999999996E-2</v>
+        <v>1.2002000000000001E-2</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -1969,34 +2014,34 @@
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J16" s="3">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K16" s="4">
-        <v>0.24406800000000001</v>
+        <v>1.8003000000000002E-2</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2010,37 +2055,37 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J17" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K17" s="4">
-        <v>0.122034</v>
+        <v>6.0010000000000001E-2</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -2051,34 +2096,34 @@
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J18" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K18" s="4">
-        <v>5.4237E-2</v>
+        <v>6.6011E-2</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2092,34 +2137,34 @@
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J19" s="3">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K19" s="4">
-        <v>3.0005E-2</v>
+        <v>0.11401799999999999</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2133,34 +2178,34 @@
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J20" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K20" s="4">
-        <v>2.7119000000000001E-2</v>
+        <v>7.8011999999999998E-2</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2174,34 +2219,34 @@
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J21" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K21" s="4">
-        <v>0.20338999999999999</v>
+        <v>8.4013000000000004E-2</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2215,34 +2260,34 @@
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J22" s="3">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="K22" s="4">
-        <v>9.4914999999999999E-2</v>
+        <v>0.14402300000000001</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2256,34 +2301,34 @@
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K23" s="4">
-        <v>5.4237E-2</v>
+        <v>6.0010000000000001E-2</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2297,37 +2342,37 @@
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="J24" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K24" s="4">
-        <v>2.2431E-2</v>
+        <v>4.8008000000000002E-2</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
@@ -2338,34 +2383,34 @@
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J25" s="3">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K25" s="4">
-        <v>0.15701399999999999</v>
+        <v>6.6011E-2</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2379,34 +2424,34 @@
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="J26" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K26" s="4">
-        <v>5.8319999999999997E-2</v>
+        <v>3.6006000000000003E-2</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2420,34 +2465,34 @@
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="J27" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K27" s="4">
-        <v>4.0375000000000001E-2</v>
+        <v>3.0005E-2</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2461,34 +2506,34 @@
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J28" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K28" s="4">
-        <v>8.9720000000000008E-3</v>
+        <v>2.0893999999999999E-2</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2502,34 +2547,34 @@
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J29" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K29" s="4">
-        <v>1.3457999999999999E-2</v>
+        <v>8.9720000000000008E-3</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2543,34 +2588,34 @@
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H30" s="3">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="J30" s="3">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K30" s="4">
-        <v>7.6263999999999998E-2</v>
+        <v>1.3457999999999999E-2</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2584,34 +2629,34 @@
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="J31" s="3">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K31" s="4">
-        <v>2.2431E-2</v>
+        <v>7.6263999999999998E-2</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2625,34 +2670,34 @@
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J32" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K32" s="4">
-        <v>0.14915300000000001</v>
+        <v>2.2431E-2</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2666,34 +2711,34 @@
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="J33" s="3">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K33" s="4">
-        <v>0.127163</v>
+        <v>5.8319999999999997E-2</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2707,34 +2752,34 @@
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J34" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K34" s="4">
-        <v>6.0817000000000003E-2</v>
+        <v>4.0375000000000001E-2</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2748,34 +2793,34 @@
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="J35" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K35" s="4">
-        <v>2.7643999999999998E-2</v>
+        <v>5.8319999999999997E-2</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2789,37 +2834,37 @@
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="J36" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K36" s="4">
-        <v>0.13559299999999999</v>
+        <v>2.2431E-2</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
@@ -2830,34 +2875,34 @@
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="J37" s="3">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="K37" s="4">
-        <v>4.0375000000000001E-2</v>
+        <v>0.15701399999999999</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2871,37 +2916,37 @@
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J38" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K38" s="4">
-        <v>5.8319999999999997E-2</v>
+        <v>4.0375000000000001E-2</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -2912,34 +2957,34 @@
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="J39" s="3">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="K39" s="4">
-        <v>0.52311600000000003</v>
+        <v>6.0817000000000003E-2</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2953,34 +2998,34 @@
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J40" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K40" s="4">
-        <v>1.1058E-2</v>
+        <v>6.0817000000000003E-2</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2994,34 +3039,34 @@
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="J41" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K41" s="4">
-        <v>1.1058E-2</v>
+        <v>3.8702E-2</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3035,34 +3080,34 @@
         <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="J42" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K42" s="4">
-        <v>1.6586E-2</v>
+        <v>4.4230999999999999E-2</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3076,34 +3121,34 @@
         <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="J43" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K43" s="4">
-        <v>1.6586E-2</v>
+        <v>5.5287999999999997E-2</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3117,34 +3162,34 @@
         <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J44" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K44" s="4">
-        <v>4.4230999999999999E-2</v>
+        <v>8.2932000000000006E-2</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3158,22 +3203,22 @@
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J45" s="3">
         <v>8</v>
@@ -3182,10 +3227,10 @@
         <v>4.4230999999999999E-2</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3199,34 +3244,34 @@
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="J46" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K46" s="4">
-        <v>1.2002000000000001E-2</v>
+        <v>4.9758999999999998E-2</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3240,34 +3285,34 @@
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="J47" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K47" s="4">
-        <v>1.8003000000000002E-2</v>
+        <v>4.9758999999999998E-2</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3281,75 +3326,75 @@
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2" t="s">
+      <c r="J48" s="3">
+        <v>9</v>
+      </c>
+      <c r="K48" s="4">
+        <v>4.9758999999999998E-2</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J48" s="3">
+      <c r="G49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J49" s="3">
         <v>10</v>
       </c>
-      <c r="K48" s="4">
-        <v>6.0010000000000001E-2</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J49" s="3">
-        <v>11</v>
-      </c>
       <c r="K49" s="4">
-        <v>6.6011E-2</v>
+        <v>5.5287999999999997E-2</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3363,34 +3408,34 @@
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="J50" s="3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="K50" s="4">
-        <v>0.11401799999999999</v>
+        <v>4.4230999999999999E-2</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3404,34 +3449,34 @@
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J51" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K51" s="4">
-        <v>3.8702E-2</v>
+        <v>6.0817000000000003E-2</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3445,10 +3490,10 @@
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>195</v>
@@ -3463,16 +3508,16 @@
         <v>197</v>
       </c>
       <c r="J52" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K52" s="4">
-        <v>3.8702E-2</v>
+        <v>7.1874999999999994E-2</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3486,34 +3531,34 @@
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H53" s="3">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="J53" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K53" s="4">
-        <v>6.6346000000000002E-2</v>
+        <v>1.1058E-2</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3527,34 +3572,34 @@
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="J54" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K54" s="4">
-        <v>6.6346000000000002E-2</v>
+        <v>1.6586E-2</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3568,34 +3613,34 @@
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J55" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K55" s="4">
-        <v>8.2932000000000006E-2</v>
+        <v>4.4230999999999999E-2</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3609,34 +3654,34 @@
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="J56" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K56" s="4">
-        <v>7.8011999999999998E-2</v>
+        <v>3.8702E-2</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3650,34 +3695,34 @@
         <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J57" s="3">
+        <v>12</v>
+      </c>
+      <c r="K57" s="4">
+        <v>6.6346000000000002E-2</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="J57" s="3">
-        <v>14</v>
-      </c>
-      <c r="K57" s="4">
-        <v>8.4013000000000004E-2</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3691,34 +3736,34 @@
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J58" s="3">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K58" s="4">
-        <v>0.14402300000000001</v>
+        <v>8.2932000000000006E-2</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3732,34 +3777,34 @@
         <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="J59" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K59" s="4">
-        <v>6.0010000000000001E-2</v>
+        <v>4.4230999999999999E-2</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3773,34 +3818,34 @@
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
       <c r="I60" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2</v>
+      </c>
+      <c r="K60" s="4">
+        <v>1.1058E-2</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="J60" s="3">
-        <v>8</v>
-      </c>
-      <c r="K60" s="4">
-        <v>4.8008000000000002E-2</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3814,34 +3859,34 @@
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J61" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K61" s="4">
-        <v>6.6011E-2</v>
+        <v>1.6586E-2</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3855,34 +3900,34 @@
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="J62" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K62" s="4">
-        <v>4.4230999999999999E-2</v>
+        <v>2.7643999999999998E-2</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3896,37 +3941,37 @@
         <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="J63" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K63" s="4">
-        <v>1.6586E-2</v>
+        <v>4.4230999999999999E-2</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>13</v>
       </c>
@@ -3937,34 +3982,34 @@
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J64" s="3">
+        <v>13</v>
+      </c>
+      <c r="K64" s="4">
+        <v>7.1874999999999994E-2</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H64" s="3">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J64" s="3">
-        <v>4</v>
-      </c>
-      <c r="K64" s="4">
-        <v>2.2114999999999999E-2</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3978,37 +4023,37 @@
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="J65" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K65" s="4">
-        <v>2.2114999999999999E-2</v>
+        <v>8.4236000000000005E-2</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>13</v>
       </c>
@@ -4019,34 +4064,34 @@
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="J66" s="3">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="K66" s="4">
-        <v>1.1058E-2</v>
+        <v>0.52311600000000003</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4060,34 +4105,34 @@
         <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>144</v>
+        <v>245</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="J67" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K67" s="4">
-        <v>1.1058E-2</v>
+        <v>2.4856E-2</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4101,34 +4146,34 @@
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>144</v>
+        <v>249</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="J68" s="3">
         <v>3</v>
       </c>
       <c r="K68" s="4">
-        <v>1.6586E-2</v>
+        <v>1.4180999999999999E-2</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4142,34 +4187,34 @@
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="J69" s="3">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="K69" s="4">
-        <v>1.6586E-2</v>
+        <v>0.25357099999999999</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4183,34 +4228,34 @@
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>144</v>
+        <v>256</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="J70" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K70" s="4">
-        <v>2.7643999999999998E-2</v>
+        <v>1.8225999999999999E-2</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4224,37 +4269,37 @@
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>144</v>
+        <v>256</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="J71" s="3">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="K71" s="4">
-        <v>4.4230999999999999E-2</v>
+        <v>9.1132000000000005E-2</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>13</v>
       </c>
@@ -4265,37 +4310,37 @@
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>144</v>
+        <v>256</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="J72" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K72" s="4">
-        <v>7.1874999999999994E-2</v>
+        <v>1.5623E-2</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>13</v>
       </c>
@@ -4306,34 +4351,34 @@
         <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>144</v>
+        <v>256</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="H73" s="3">
         <v>0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="J73" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K73" s="4">
-        <v>7.1874999999999994E-2</v>
+        <v>1.3018999999999999E-2</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>58</v>
+        <v>263</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>174</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4347,34 +4392,34 @@
         <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="J74" s="3">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K74" s="4">
-        <v>6.0817000000000003E-2</v>
+        <v>0.127163</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4388,22 +4433,22 @@
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="J75" s="3">
         <v>11</v>
@@ -4412,10 +4457,10 @@
         <v>6.0817000000000003E-2</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4429,34 +4474,34 @@
         <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="J76" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K76" s="4">
-        <v>3.8702E-2</v>
+        <v>2.7643999999999998E-2</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4470,34 +4515,34 @@
         <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="J77" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K77" s="4">
-        <v>4.4230999999999999E-2</v>
+        <v>1.1058E-2</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4511,34 +4556,34 @@
         <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="G78" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J78" s="3">
+        <v>8</v>
+      </c>
+      <c r="K78" s="4">
+        <v>4.4230999999999999E-2</v>
+      </c>
+      <c r="L78" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H78" s="3">
-        <v>0</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="J78" s="3">
-        <v>10</v>
-      </c>
-      <c r="K78" s="4">
-        <v>5.5287999999999997E-2</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M78" s="1" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4552,34 +4597,34 @@
         <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>266</v>
+        <v>202</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="J79" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K79" s="4">
-        <v>8.2932000000000006E-2</v>
+        <v>1.6586E-2</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4593,34 +4638,34 @@
         <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="J80" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K80" s="4">
-        <v>4.4230999999999999E-2</v>
+        <v>3.8702E-2</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>172</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4634,37 +4679,37 @@
         <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
       <c r="J81" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K81" s="4">
-        <v>4.9758999999999998E-2</v>
+        <v>6.6346000000000002E-2</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>13</v>
       </c>
@@ -4675,34 +4720,34 @@
         <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="J82" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K82" s="4">
-        <v>4.9758999999999998E-2</v>
+        <v>7.1874999999999994E-2</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>172</v>
+        <v>283</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4716,34 +4761,34 @@
         <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="J83" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K83" s="4">
-        <v>4.9758999999999998E-2</v>
+        <v>1.6586E-2</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>172</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4757,34 +4802,34 @@
         <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="J84" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K84" s="4">
-        <v>5.5287999999999997E-2</v>
+        <v>1.1058E-2</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>172</v>
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4798,34 +4843,34 @@
         <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="J85" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K85" s="4">
-        <v>4.4230999999999999E-2</v>
+        <v>2.2114999999999999E-2</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>172</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4839,16 +4884,16 @@
         <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>286</v>
+        <v>217</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
@@ -4857,16 +4902,16 @@
         <v>287</v>
       </c>
       <c r="J86" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K86" s="4">
-        <v>6.0817000000000003E-2</v>
+        <v>2.2114999999999999E-2</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>172</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4880,13 +4925,13 @@
         <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>289</v>
@@ -4898,16 +4943,57 @@
         <v>290</v>
       </c>
       <c r="J87" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K87" s="4">
-        <v>7.1874999999999994E-2</v>
+        <v>1.6586E-2</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>172</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J88" s="3">
+        <v>21</v>
+      </c>
+      <c r="K88" s="4">
+        <v>9.4208E-2</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/data/coded_segments/md_7_1.xlsx
+++ b/data/coded_segments/md_7_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{196B7C9A-C24C-F141-8E59-333783D30F09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9FC2F36-1FA2-0F4E-A4DF-B7B4783D612C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="296">
   <si>
     <t>Color</t>
   </si>
@@ -446,12 +446,6 @@
     <t>8/28/18 17:56:00</t>
   </si>
   <si>
-    <t>1: 4535</t>
-  </si>
-  <si>
-    <t>1: 4547</t>
-  </si>
-  <si>
     <t>Bacteria:Strain</t>
   </si>
   <si>
@@ -909,6 +903,15 @@
   </si>
   <si>
     <t>11/8/18 14:33:00</t>
+  </si>
+  <si>
+    <t>1: 4535</t>
+  </si>
+  <si>
+    <t>1: 4547</t>
+  </si>
+  <si>
+    <t>11/19/18 13:26:00</t>
   </si>
 </sst>
 </file>
@@ -2796,34 +2799,34 @@
         <v>120</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="J35" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K35" s="4">
-        <v>5.8319999999999997E-2</v>
+        <v>2.2431E-2</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>13</v>
       </c>
@@ -2837,34 +2840,34 @@
         <v>120</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J36" s="3">
+        <v>35</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0.15701399999999999</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J36" s="3">
-        <v>5</v>
-      </c>
-      <c r="K36" s="4">
-        <v>2.2431E-2</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
@@ -2878,31 +2881,31 @@
         <v>120</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J37" s="3">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="K37" s="4">
-        <v>0.15701399999999999</v>
+        <v>4.0375000000000001E-2</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2916,34 +2919,34 @@
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J38" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K38" s="4">
-        <v>4.0375000000000001E-2</v>
+        <v>6.0817000000000003E-2</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2957,22 +2960,22 @@
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J39" s="3">
         <v>11</v>
@@ -2984,7 +2987,7 @@
         <v>20</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2998,34 +3001,34 @@
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J40" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K40" s="4">
-        <v>6.0817000000000003E-2</v>
+        <v>3.8702E-2</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3039,34 +3042,34 @@
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J41" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K41" s="4">
-        <v>3.8702E-2</v>
+        <v>4.4230999999999999E-2</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3080,34 +3083,34 @@
         <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J42" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K42" s="4">
-        <v>4.4230999999999999E-2</v>
+        <v>5.5287999999999997E-2</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3121,34 +3124,34 @@
         <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J43" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K43" s="4">
-        <v>5.5287999999999997E-2</v>
+        <v>8.2932000000000006E-2</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3162,34 +3165,34 @@
         <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J44" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K44" s="4">
-        <v>8.2932000000000006E-2</v>
+        <v>4.4230999999999999E-2</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3203,34 +3206,34 @@
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J45" s="3">
+        <v>9</v>
+      </c>
+      <c r="K45" s="4">
+        <v>4.9758999999999998E-2</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J45" s="3">
-        <v>8</v>
-      </c>
-      <c r="K45" s="4">
-        <v>4.4230999999999999E-2</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3244,22 +3247,22 @@
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J46" s="3">
         <v>9</v>
@@ -3271,7 +3274,7 @@
         <v>20</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3285,22 +3288,22 @@
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J47" s="3">
         <v>9</v>
@@ -3312,7 +3315,7 @@
         <v>20</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3326,34 +3329,34 @@
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J48" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K48" s="4">
-        <v>4.9758999999999998E-2</v>
+        <v>5.5287999999999997E-2</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3367,34 +3370,34 @@
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="J49" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K49" s="4">
-        <v>5.5287999999999997E-2</v>
+        <v>4.4230999999999999E-2</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3408,7 +3411,7 @@
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>57</v>
@@ -3423,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="J50" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K50" s="4">
-        <v>4.4230999999999999E-2</v>
+        <v>6.0817000000000003E-2</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3449,34 +3452,34 @@
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J51" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K51" s="4">
-        <v>6.0817000000000003E-2</v>
+        <v>7.1874999999999994E-2</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3490,34 +3493,34 @@
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J52" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K52" s="4">
-        <v>7.1874999999999994E-2</v>
+        <v>1.1058E-2</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3531,34 +3534,34 @@
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="J53" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K53" s="4">
-        <v>1.1058E-2</v>
+        <v>1.6586E-2</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3572,10 +3575,10 @@
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>201</v>
@@ -3587,19 +3590,19 @@
         <v>0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="J54" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K54" s="4">
-        <v>1.6586E-2</v>
+        <v>4.4230999999999999E-2</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3613,34 +3616,34 @@
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J55" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K55" s="4">
-        <v>4.4230999999999999E-2</v>
+        <v>3.8702E-2</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3654,34 +3657,34 @@
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J56" s="3">
+        <v>12</v>
+      </c>
+      <c r="K56" s="4">
+        <v>6.6346000000000002E-2</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J56" s="3">
-        <v>7</v>
-      </c>
-      <c r="K56" s="4">
-        <v>3.8702E-2</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3695,34 +3698,34 @@
         <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J57" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K57" s="4">
-        <v>6.6346000000000002E-2</v>
+        <v>8.2932000000000006E-2</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3736,34 +3739,34 @@
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="J58" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K58" s="4">
-        <v>8.2932000000000006E-2</v>
+        <v>4.4230999999999999E-2</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3777,34 +3780,34 @@
         <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2</v>
+      </c>
+      <c r="K59" s="4">
+        <v>1.1058E-2</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J59" s="3">
-        <v>8</v>
-      </c>
-      <c r="K59" s="4">
-        <v>4.4230999999999999E-2</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3818,34 +3821,34 @@
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J60" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K60" s="4">
-        <v>1.1058E-2</v>
+        <v>1.6586E-2</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3859,34 +3862,34 @@
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J61" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K61" s="4">
-        <v>1.6586E-2</v>
+        <v>2.7643999999999998E-2</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3900,37 +3903,37 @@
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G62" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J62" s="3">
+        <v>8</v>
+      </c>
+      <c r="K62" s="4">
+        <v>4.4230999999999999E-2</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J62" s="3">
-        <v>5</v>
-      </c>
-      <c r="K62" s="4">
-        <v>2.7643999999999998E-2</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -3941,37 +3944,37 @@
         <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J63" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K63" s="4">
-        <v>4.4230999999999999E-2</v>
+        <v>7.1874999999999994E-2</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>13</v>
       </c>
@@ -3982,37 +3985,37 @@
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J64" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K64" s="4">
-        <v>7.1874999999999994E-2</v>
+        <v>8.4236000000000005E-2</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>13</v>
       </c>
@@ -4023,37 +4026,37 @@
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G65" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J65" s="3">
+        <v>74</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0.52311600000000003</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="H65" s="3">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J65" s="3">
-        <v>7</v>
-      </c>
-      <c r="K65" s="4">
-        <v>8.4236000000000005E-2</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>13</v>
       </c>
@@ -4064,34 +4067,34 @@
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J66" s="3">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="K66" s="4">
-        <v>0.52311600000000003</v>
+        <v>2.4856E-2</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4105,34 +4108,34 @@
         <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J67" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K67" s="4">
-        <v>2.4856E-2</v>
+        <v>1.4180999999999999E-2</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4146,34 +4149,34 @@
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G68" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J68" s="3">
+        <v>49</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0.25357099999999999</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="H68" s="3">
-        <v>0</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="J68" s="3">
-        <v>3</v>
-      </c>
-      <c r="K68" s="4">
-        <v>1.4180999999999999E-2</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4187,34 +4190,34 @@
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J69" s="3">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="K69" s="4">
-        <v>0.25357099999999999</v>
+        <v>1.8225999999999999E-2</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4228,34 +4231,34 @@
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J70" s="3">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K70" s="4">
-        <v>1.8225999999999999E-2</v>
+        <v>9.1132000000000005E-2</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4269,34 +4272,34 @@
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G71" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J71" s="3">
+        <v>6</v>
+      </c>
+      <c r="K71" s="4">
+        <v>1.5623E-2</v>
+      </c>
+      <c r="L71" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="H71" s="3">
-        <v>0</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J71" s="3">
-        <v>35</v>
-      </c>
-      <c r="K71" s="4">
-        <v>9.1132000000000005E-2</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="M71" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4310,34 +4313,34 @@
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G72" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J72" s="3">
+        <v>5</v>
+      </c>
+      <c r="K72" s="4">
+        <v>1.3018999999999999E-2</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M72" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="J72" s="3">
-        <v>6</v>
-      </c>
-      <c r="K72" s="4">
-        <v>1.5623E-2</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4351,34 +4354,34 @@
         <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>256</v>
+        <v>152</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H73" s="3">
         <v>0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J73" s="3">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="K73" s="4">
-        <v>1.3018999999999999E-2</v>
+        <v>0.127163</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4392,34 +4395,34 @@
         <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G74" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J74" s="3">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4">
+        <v>6.0817000000000003E-2</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M74" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="H74" s="3">
-        <v>0</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="J74" s="3">
-        <v>23</v>
-      </c>
-      <c r="K74" s="4">
-        <v>0.127163</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4433,34 +4436,34 @@
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J75" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K75" s="4">
-        <v>6.0817000000000003E-2</v>
+        <v>2.7643999999999998E-2</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4474,34 +4477,34 @@
         <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>279</v>
+        <v>196</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>280</v>
+        <v>197</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
       <c r="I76" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2</v>
+      </c>
+      <c r="K76" s="4">
+        <v>1.1058E-2</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M76" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="J76" s="3">
-        <v>5</v>
-      </c>
-      <c r="K76" s="4">
-        <v>2.7643999999999998E-2</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4515,34 +4518,34 @@
         <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J77" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K77" s="4">
-        <v>1.1058E-2</v>
+        <v>4.4230999999999999E-2</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4556,34 +4559,34 @@
         <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="J78" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K78" s="4">
-        <v>4.4230999999999999E-2</v>
+        <v>1.6586E-2</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4597,34 +4600,34 @@
         <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="J79" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K79" s="4">
-        <v>1.6586E-2</v>
+        <v>3.8702E-2</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4638,37 +4641,37 @@
         <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J80" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K80" s="4">
-        <v>3.8702E-2</v>
+        <v>6.6346000000000002E-2</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>13</v>
       </c>
@@ -4679,37 +4682,37 @@
         <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>282</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="J81" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K81" s="4">
-        <v>6.6346000000000002E-2</v>
+        <v>7.1874999999999994E-2</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>13</v>
       </c>
@@ -4720,31 +4723,31 @@
         <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="J82" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K82" s="4">
-        <v>7.1874999999999994E-2</v>
+        <v>1.6586E-2</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>283</v>
@@ -4761,34 +4764,34 @@
         <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J83" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K83" s="4">
-        <v>1.6586E-2</v>
+        <v>1.1058E-2</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4802,34 +4805,34 @@
         <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="G84" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="J84" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K84" s="4">
-        <v>1.1058E-2</v>
+        <v>2.2114999999999999E-2</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4843,22 +4846,22 @@
         <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E85" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="G85" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J85" s="3">
         <v>4</v>
@@ -4867,10 +4870,10 @@
         <v>2.2114999999999999E-2</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4884,34 +4887,34 @@
         <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F86" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J86" s="3">
+        <v>3</v>
+      </c>
+      <c r="K86" s="4">
+        <v>1.6586E-2</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M86" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H86" s="3">
-        <v>0</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="J86" s="3">
-        <v>4</v>
-      </c>
-      <c r="K86" s="4">
-        <v>2.2114999999999999E-2</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4925,34 +4928,34 @@
         <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>216</v>
+        <v>289</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J87" s="3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K87" s="4">
-        <v>1.6586E-2</v>
+        <v>9.4208E-2</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4972,28 +4975,28 @@
         <v>61</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="J88" s="3">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K88" s="4">
-        <v>9.4208E-2</v>
+        <v>5.8319999999999997E-2</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
